--- a/scene_cat_exp_2023.2.2_english/input_files/69_scenecat_memory_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/69_scenecat_memory_bedrooms_1.xlsx
@@ -500,50 +500,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_bntrh.png</t>
+          <t>stimuli/img_2pk6v.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>76.07894736842105</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="N2">
-        <v>53.36842105263158</v>
+        <v>66.16216216216216</v>
       </c>
       <c r="O2">
-        <v>64.72368421052632</v>
+        <v>75.62162162162161</v>
       </c>
       <c r="P2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -577,55 +582,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_aweye.png</t>
+          <t>stimuli/img_bklr1.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>53.42105263157895</v>
+        <v>86.54761904761905</v>
       </c>
       <c r="N3">
-        <v>31.84210526315789</v>
+        <v>67.73809523809524</v>
       </c>
       <c r="O3">
-        <v>42.63157894736842</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="P3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -676,38 +676,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_okvvw.png</t>
+          <t>stimuli/img_bj2gr.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>50.58333333333334</v>
+        <v>65.25</v>
       </c>
       <c r="N4">
-        <v>32.11111111111111</v>
+        <v>44.8</v>
       </c>
       <c r="O4">
-        <v>41.34722222222223</v>
+        <v>55.025</v>
       </c>
       <c r="P4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -758,38 +758,38 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_9pfbj.png</t>
+          <t>stimuli/img_jivhq.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>91.27272727272727</v>
+        <v>37</v>
       </c>
       <c r="N5">
-        <v>80.09090909090909</v>
+        <v>22.26530612244898</v>
       </c>
       <c r="O5">
-        <v>85.68181818181819</v>
+        <v>29.63265306122449</v>
       </c>
       <c r="P5">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -823,50 +823,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_kn0we.png</t>
+          <t>stimuli/img_z3yzz.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>80.15909090909091</v>
+        <v>71.71052631578948</v>
       </c>
       <c r="N6">
-        <v>56.68181818181818</v>
+        <v>49.81578947368421</v>
       </c>
       <c r="O6">
-        <v>68.42045454545455</v>
+        <v>60.76315789473685</v>
       </c>
       <c r="P6">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -912,38 +917,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_sfh4b.png</t>
+          <t>stimuli/img_6ddrx.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>69.06521739130434</v>
+        <v>82.2</v>
       </c>
       <c r="N7">
-        <v>49.54347826086956</v>
+        <v>63.68571428571428</v>
       </c>
       <c r="O7">
-        <v>59.30434782608695</v>
+        <v>72.94285714285715</v>
       </c>
       <c r="P7">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -989,38 +994,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_o37la.png</t>
+          <t>stimuli/img_ri0yx.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>65.24324324324324</v>
+        <v>88.96969696969697</v>
       </c>
       <c r="N8">
-        <v>42.78378378378378</v>
+        <v>77.15151515151516</v>
       </c>
       <c r="O8">
-        <v>54.01351351351352</v>
+        <v>83.06060606060606</v>
       </c>
       <c r="P8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1071,38 +1076,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_z3yzz.png</t>
+          <t>stimuli/img_okvvw.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>71.71052631578948</v>
+        <v>50.58333333333334</v>
       </c>
       <c r="N9">
-        <v>49.81578947368421</v>
+        <v>32.11111111111111</v>
       </c>
       <c r="O9">
-        <v>60.76315789473685</v>
+        <v>41.34722222222223</v>
       </c>
       <c r="P9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1136,50 +1141,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_i7vab.png</t>
+          <t>stimuli/img_2pnl2.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>86.40000000000001</v>
+        <v>6.621621621621622</v>
       </c>
       <c r="N10">
-        <v>67.8</v>
+        <v>7.135135135135135</v>
       </c>
       <c r="O10">
-        <v>77.09999999999999</v>
+        <v>6.878378378378379</v>
       </c>
       <c r="P10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1213,55 +1223,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_anzgh.png</t>
+          <t>stimuli/img_9z99v.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>75.10526315789474</v>
+        <v>81.15625</v>
       </c>
       <c r="N11">
-        <v>55.76315789473684</v>
+        <v>64.78125</v>
       </c>
       <c r="O11">
-        <v>65.43421052631579</v>
+        <v>72.96875</v>
       </c>
       <c r="P11">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V11">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1295,55 +1300,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_yteqw.png</t>
+          <t>stimuli/img_qbdgm.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>66.83783783783784</v>
+        <v>76.88095238095238</v>
       </c>
       <c r="N12">
-        <v>43.78378378378378</v>
+        <v>60.40476190476191</v>
       </c>
       <c r="O12">
-        <v>55.31081081081081</v>
+        <v>68.64285714285714</v>
       </c>
       <c r="P12">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1394,38 +1394,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_jivhq.png</t>
+          <t>stimuli/img_v8dra.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>61.77272727272727</v>
       </c>
       <c r="N13">
-        <v>22.26530612244898</v>
+        <v>38.79545454545455</v>
       </c>
       <c r="O13">
-        <v>29.63265306122449</v>
+        <v>50.28409090909091</v>
       </c>
       <c r="P13">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1459,55 +1459,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_2pk6v.png</t>
+          <t>stimuli/img_sltwe.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>85.08108108108108</v>
+        <v>72.02500000000001</v>
       </c>
       <c r="N14">
-        <v>66.16216216216216</v>
+        <v>46.875</v>
       </c>
       <c r="O14">
-        <v>75.62162162162161</v>
+        <v>59.45</v>
       </c>
       <c r="P14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1541,55 +1536,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_5p2ql.png</t>
+          <t>stimuli/img_dmjh8.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>89.19565217391305</v>
+        <v>57.48648648648648</v>
       </c>
       <c r="N15">
-        <v>72.52173913043478</v>
+        <v>37.64864864864865</v>
       </c>
       <c r="O15">
-        <v>80.85869565217391</v>
+        <v>47.56756756756756</v>
       </c>
       <c r="P15">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1635,38 +1625,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_9z99v.png</t>
+          <t>stimuli/img_kn0we.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>81.15625</v>
+        <v>80.15909090909091</v>
       </c>
       <c r="N16">
-        <v>64.78125</v>
+        <v>56.68181818181818</v>
       </c>
       <c r="O16">
-        <v>72.96875</v>
+        <v>68.42045454545455</v>
       </c>
       <c r="P16">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1700,55 +1690,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_cgdyc.png</t>
+          <t>stimuli/img_7os7q.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>32.93023255813954</v>
+        <v>59.7027027027027</v>
       </c>
       <c r="N17">
-        <v>14.04651162790698</v>
+        <v>34.94594594594594</v>
       </c>
       <c r="O17">
-        <v>23.48837209302326</v>
+        <v>47.32432432432432</v>
       </c>
       <c r="P17">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1799,38 +1784,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_fqgem.png</t>
+          <t>stimuli/img_kzg3h.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>80.75</v>
+        <v>77.02777777777777</v>
       </c>
       <c r="N18">
-        <v>61.475</v>
+        <v>56.22222222222222</v>
       </c>
       <c r="O18">
-        <v>71.1125</v>
+        <v>66.625</v>
       </c>
       <c r="P18">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1876,38 +1861,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_sltwe.png</t>
+          <t>stimuli/img_jge7p.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>72.02500000000001</v>
+        <v>90.42424242424242</v>
       </c>
       <c r="N19">
-        <v>46.875</v>
+        <v>75.63636363636364</v>
       </c>
       <c r="O19">
-        <v>59.45</v>
+        <v>83.03030303030303</v>
       </c>
       <c r="P19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1936,9 +1921,14 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1948,8 +1938,38 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/catch_11.jpg</t>
-        </is>
+          <t>stimuli/img_o37la.png</t>
+        </is>
+      </c>
+      <c r="M20">
+        <v>65.24324324324324</v>
+      </c>
+      <c r="N20">
+        <v>42.78378378378378</v>
+      </c>
+      <c r="O20">
+        <v>54.01351351351352</v>
+      </c>
+      <c r="P20">
+        <v>37</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2072,38 +2092,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_c2pbs.png</t>
+          <t>stimuli/img_fbihy.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>21.95238095238095</v>
+        <v>44.39024390243902</v>
       </c>
       <c r="N22">
-        <v>14.47619047619048</v>
+        <v>26.90243902439024</v>
       </c>
       <c r="O22">
-        <v>18.21428571428572</v>
+        <v>35.64634146341464</v>
       </c>
       <c r="P22">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2137,50 +2157,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_badai.png</t>
+          <t>stimuli/img_cgdyc.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>63.97435897435897</v>
+        <v>32.93023255813954</v>
       </c>
       <c r="N23">
-        <v>43.38461538461539</v>
+        <v>14.04651162790698</v>
       </c>
       <c r="O23">
-        <v>53.67948717948718</v>
+        <v>23.48837209302326</v>
       </c>
       <c r="P23">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2231,38 +2256,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_2pnl2.png</t>
+          <t>stimuli/img_yteqw.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>6.621621621621622</v>
+        <v>66.83783783783784</v>
       </c>
       <c r="N24">
-        <v>7.135135135135135</v>
+        <v>43.78378378378378</v>
       </c>
       <c r="O24">
-        <v>6.878378378378379</v>
+        <v>55.31081081081081</v>
       </c>
       <c r="P24">
         <v>37</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2296,32 +2321,37 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_6ddrx.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>82.2</v>
+        <v>80.75</v>
       </c>
       <c r="N25">
-        <v>63.68571428571428</v>
+        <v>61.475</v>
       </c>
       <c r="O25">
-        <v>72.94285714285715</v>
+        <v>71.1125</v>
       </c>
       <c r="P25">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -2368,60 +2398,20 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_ose78.png</t>
-        </is>
-      </c>
-      <c r="M26">
-        <v>80.19444444444444</v>
-      </c>
-      <c r="N26">
-        <v>60.25</v>
-      </c>
-      <c r="O26">
-        <v>70.22222222222223</v>
-      </c>
-      <c r="P26">
-        <v>36</v>
-      </c>
-      <c r="Q26">
-        <v>8</v>
-      </c>
-      <c r="R26">
-        <v>7</v>
-      </c>
-      <c r="S26">
-        <v>7</v>
-      </c>
-      <c r="T26">
-        <v>7</v>
-      </c>
-      <c r="U26">
-        <v>7</v>
-      </c>
-      <c r="V26">
-        <v>7</v>
+          <t>stimuli/catch_05.jpg</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2455,55 +2445,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_kzg3h.png</t>
+          <t>stimuli/img_l1h36.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>77.02777777777777</v>
+        <v>26.64285714285714</v>
       </c>
       <c r="N27">
-        <v>56.22222222222222</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="O27">
-        <v>66.625</v>
+        <v>17.89285714285714</v>
       </c>
       <c r="P27">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2554,38 +2539,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_bj2gr.png</t>
+          <t>stimuli/img_gbypq.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>65.25</v>
+        <v>76.27500000000001</v>
       </c>
       <c r="N28">
-        <v>44.8</v>
+        <v>51.925</v>
       </c>
       <c r="O28">
-        <v>55.025</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="P28">
         <v>40</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V28">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2631,38 +2616,38 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_ri0yx.png</t>
+          <t>stimuli/img_zv0dq.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>88.96969696969697</v>
+        <v>76.86842105263158</v>
       </c>
       <c r="N29">
-        <v>77.15151515151516</v>
+        <v>52.71052631578947</v>
       </c>
       <c r="O29">
-        <v>83.06060606060606</v>
+        <v>64.78947368421052</v>
       </c>
       <c r="P29">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V29">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2713,38 +2698,38 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_gbypq.png</t>
+          <t>stimuli/img_9pfbj.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>76.27500000000001</v>
+        <v>91.27272727272727</v>
       </c>
       <c r="N30">
-        <v>51.925</v>
+        <v>80.09090909090909</v>
       </c>
       <c r="O30">
-        <v>64.09999999999999</v>
+        <v>85.68181818181819</v>
       </c>
       <c r="P30">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V30">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2790,38 +2775,38 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_qbdgm.png</t>
+          <t>stimuli/img_sfh4b.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>76.88095238095238</v>
+        <v>69.06521739130434</v>
       </c>
       <c r="N31">
-        <v>60.40476190476191</v>
+        <v>49.54347826086956</v>
       </c>
       <c r="O31">
-        <v>68.64285714285714</v>
+        <v>59.30434782608695</v>
       </c>
       <c r="P31">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V31">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2855,55 +2840,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_t4hvr.png</t>
+          <t>stimuli/img_i7vab.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>61.69230769230769</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N32">
-        <v>39.76923076923077</v>
+        <v>67.8</v>
       </c>
       <c r="O32">
-        <v>50.73076923076923</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="P32">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V32">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2949,38 +2929,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_bklr1.png</t>
+          <t>stimuli/img_badai.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>86.54761904761905</v>
+        <v>63.97435897435897</v>
       </c>
       <c r="N33">
-        <v>67.73809523809524</v>
+        <v>43.38461538461539</v>
       </c>
       <c r="O33">
-        <v>77.14285714285714</v>
+        <v>53.67948717948718</v>
       </c>
       <c r="P33">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V33">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3014,50 +2994,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_zv0dq.png</t>
+          <t>stimuli/img_aweye.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>76.86842105263158</v>
+        <v>53.42105263157895</v>
       </c>
       <c r="N34">
-        <v>52.71052631578947</v>
+        <v>31.84210526315789</v>
       </c>
       <c r="O34">
-        <v>64.78947368421052</v>
+        <v>42.63157894736842</v>
       </c>
       <c r="P34">
         <v>38</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V34">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3103,38 +3088,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_fbihy.png</t>
+          <t>stimuli/img_c2pbs.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>44.39024390243902</v>
+        <v>21.95238095238095</v>
       </c>
       <c r="N35">
-        <v>26.90243902439024</v>
+        <v>14.47619047619048</v>
       </c>
       <c r="O35">
-        <v>35.64634146341464</v>
+        <v>18.21428571428572</v>
       </c>
       <c r="P35">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3180,38 +3165,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_7os7q.png</t>
+          <t>stimuli/img_bntrh.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>59.7027027027027</v>
+        <v>76.07894736842105</v>
       </c>
       <c r="N36">
-        <v>34.94594594594594</v>
+        <v>53.36842105263158</v>
       </c>
       <c r="O36">
-        <v>47.32432432432432</v>
+        <v>64.72368421052632</v>
       </c>
       <c r="P36">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -3245,50 +3230,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_dmjh8.png</t>
+          <t>stimuli/img_3bxjb.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>57.48648648648648</v>
+        <v>87.28571428571429</v>
       </c>
       <c r="N37">
-        <v>37.64864864864865</v>
+        <v>72.65714285714286</v>
       </c>
       <c r="O37">
-        <v>47.56756756756756</v>
+        <v>79.97142857142858</v>
       </c>
       <c r="P37">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V37">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3339,38 +3329,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_ic3os.png</t>
+          <t>stimuli/img_anzgh.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>84.79069767441861</v>
+        <v>75.10526315789474</v>
       </c>
       <c r="N38">
-        <v>66.16279069767442</v>
+        <v>55.76315789473684</v>
       </c>
       <c r="O38">
-        <v>75.47674418604652</v>
+        <v>65.43421052631579</v>
       </c>
       <c r="P38">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V38">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -3404,50 +3394,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_jge7p.png</t>
+          <t>stimuli/img_ose78.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>90.42424242424242</v>
+        <v>80.19444444444444</v>
       </c>
       <c r="N39">
-        <v>75.63636363636364</v>
+        <v>60.25</v>
       </c>
       <c r="O39">
-        <v>83.03030303030303</v>
+        <v>70.22222222222223</v>
       </c>
       <c r="P39">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V39">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -3481,50 +3476,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_l1h36.png</t>
+          <t>stimuli/img_ic3os.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>26.64285714285714</v>
+        <v>84.79069767441861</v>
       </c>
       <c r="N40">
-        <v>9.142857142857142</v>
+        <v>66.16279069767442</v>
       </c>
       <c r="O40">
-        <v>17.89285714285714</v>
+        <v>75.47674418604652</v>
       </c>
       <c r="P40">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -3575,38 +3575,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_v8dra.png</t>
+          <t>stimuli/img_5p2ql.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>61.77272727272727</v>
+        <v>89.19565217391305</v>
       </c>
       <c r="N41">
-        <v>38.79545454545455</v>
+        <v>72.52173913043478</v>
       </c>
       <c r="O41">
-        <v>50.28409090909091</v>
+        <v>80.85869565217391</v>
       </c>
       <c r="P41">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U41">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -3657,38 +3657,38 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_3bxjb.png</t>
+          <t>stimuli/img_t4hvr.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>87.28571428571429</v>
+        <v>61.69230769230769</v>
       </c>
       <c r="N42">
-        <v>72.65714285714286</v>
+        <v>39.76923076923077</v>
       </c>
       <c r="O42">
-        <v>79.97142857142858</v>
+        <v>50.73076923076923</v>
       </c>
       <c r="P42">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V42">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
